--- a/data/e-mailing_authors_for_data.xlsx
+++ b/data/e-mailing_authors_for_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxlindmark/Desktop/R_STUDIO_PROJECTS/scaling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F2FC83-1057-5144-8E3E-6F15B6AD1FA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434261C3-3025-A64B-808D-237DB5D7D261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27840" windowHeight="22160" xr2:uid="{B4C08AE0-3A1E-904B-8E17-AE1A12838F3D}"/>
+    <workbookView xWindow="10240" yWindow="460" windowWidth="27840" windowHeight="22160" xr2:uid="{B4C08AE0-3A1E-904B-8E17-AE1A12838F3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="177">
   <si>
     <t>Rate</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Ohlberger-etal-2012-OIKOS</t>
   </si>
   <si>
-    <t>From author</t>
-  </si>
-  <si>
     <t>Mesa-etal-2013-Trans.Am.Fish.Soc</t>
   </si>
   <si>
@@ -564,6 +561,9 @@
   </si>
   <si>
     <t>Polyprion oxygeneios</t>
+  </si>
+  <si>
+    <t>From co-author</t>
   </si>
 </sst>
 </file>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F006A5FD-A392-2548-AFD4-3A7558A73F71}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1048,10 +1048,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>161</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -1060,98 +1060,107 @@
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4"/>
+      <c r="C2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4"/>
+      <c r="C3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="C4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>7</v>
-      </c>
       <c r="D6" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1159,13 +1168,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="15"/>
@@ -1176,16 +1185,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1193,16 +1202,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1210,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1227,16 +1236,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1244,16 +1253,16 @@
         <v>1</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>17</v>
-      </c>
       <c r="D12" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1261,16 +1270,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1278,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>21</v>
-      </c>
       <c r="D14" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1295,22 +1304,22 @@
         <v>1</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1318,13 +1327,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1332,19 +1341,19 @@
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H17" s="4"/>
     </row>
@@ -1353,22 +1362,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="F18" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H18" s="4"/>
     </row>
@@ -1377,22 +1386,22 @@
         <v>1</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H19" s="4"/>
     </row>
@@ -1401,22 +1410,22 @@
         <v>1</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H20" s="4"/>
     </row>
@@ -1425,22 +1434,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1448,19 +1457,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H22" s="4"/>
     </row>
@@ -1469,19 +1478,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H23" s="4"/>
     </row>
@@ -1490,25 +1499,25 @@
         <v>1</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1516,25 +1525,25 @@
         <v>1</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1542,22 +1551,22 @@
         <v>1</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H26" s="4"/>
     </row>
@@ -1566,22 +1575,22 @@
         <v>1</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H27" s="4"/>
     </row>
@@ -1590,19 +1599,19 @@
         <v>1</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H28" s="4"/>
     </row>
@@ -1611,19 +1620,19 @@
         <v>1</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H29" s="4"/>
     </row>
@@ -1632,19 +1641,19 @@
         <v>1</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H30" s="4"/>
     </row>
@@ -1653,19 +1662,19 @@
         <v>1</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H31" s="4"/>
     </row>
@@ -1674,19 +1683,19 @@
         <v>1</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H32" s="4"/>
     </row>
@@ -1695,19 +1704,19 @@
         <v>1</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H33" s="4"/>
     </row>
@@ -1716,19 +1725,19 @@
         <v>1</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H34" s="4"/>
     </row>
@@ -1737,211 +1746,211 @@
         <v>1</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B42" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>137</v>
-      </c>
       <c r="F42" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -1949,19 +1958,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D45" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>114</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -1969,92 +1978,92 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -2062,19 +2071,19 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D50" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>114</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -2082,410 +2091,419 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H53" s="4"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="18" t="s">
-        <v>95</v>
-      </c>
       <c r="C55" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H57" s="4"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B58" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>155</v>
+      <c r="D59" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>161</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C63" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E62" s="9" t="s">
+      <c r="D63" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="F62" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>155</v>
+      <c r="F63" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="H63" s="4"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H65" s="4"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="4"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>155</v>
+      <c r="A67" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>161</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B68" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>169</v>
-      </c>
       <c r="F68" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E69" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B69" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>169</v>
-      </c>
       <c r="F69" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -2493,19 +2511,19 @@
         <v>1</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C70" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E70" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="D70" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E70" s="24" t="s">
-        <v>172</v>
-      </c>
       <c r="F70" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -2513,19 +2531,19 @@
         <v>1</v>
       </c>
       <c r="B71" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="C71" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="D71" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>175</v>
-      </c>
       <c r="F71" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">

--- a/data/e-mailing_authors_for_data.xlsx
+++ b/data/e-mailing_authors_for_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxlindmark/Desktop/R_STUDIO_PROJECTS/scaling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434261C3-3025-A64B-808D-237DB5D7D261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DDD16A-F8FF-7F4F-B0AC-A2000E14F91F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10240" yWindow="460" windowWidth="27840" windowHeight="22160" xr2:uid="{B4C08AE0-3A1E-904B-8E17-AE1A12838F3D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="177">
   <si>
     <t>Rate</t>
   </si>
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2332,23 +2332,26 @@
       <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E62" s="9" t="s">
+      <c r="D62" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="F62" s="9" t="s">
-        <v>154</v>
+      <c r="F62" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>161</v>
       </c>
       <c r="H62" s="4"/>
     </row>

--- a/data/e-mailing_authors_for_data.xlsx
+++ b/data/e-mailing_authors_for_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxlindmark/Desktop/R_STUDIO_PROJECTS/scaling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DDD16A-F8FF-7F4F-B0AC-A2000E14F91F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A166798-6A1A-4D4A-92E4-A3FDFE631DEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="460" windowWidth="27840" windowHeight="22160" xr2:uid="{B4C08AE0-3A1E-904B-8E17-AE1A12838F3D}"/>
+    <workbookView xWindow="2960" yWindow="480" windowWidth="31400" windowHeight="22160" xr2:uid="{B4C08AE0-3A1E-904B-8E17-AE1A12838F3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="177">
   <si>
     <t>Rate</t>
   </si>
@@ -671,7 +671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -709,6 +709,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1024,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F006A5FD-A392-2548-AFD4-3A7558A73F71}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1699,7 +1700,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>1</v>
       </c>
@@ -1720,28 +1721,32 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="11" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F34" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" s="17"/>
+      <c r="I34" s="25"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>1</v>
       </c>
@@ -1762,7 +1767,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>92</v>
       </c>
@@ -1783,7 +1788,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>92</v>
       </c>
@@ -1801,7 +1806,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>92</v>
       </c>
@@ -1819,7 +1824,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>92</v>
       </c>
@@ -1843,7 +1848,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>92</v>
       </c>
@@ -1864,7 +1869,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>92</v>
       </c>
@@ -1888,7 +1893,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>92</v>
       </c>
@@ -1912,7 +1917,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>92</v>
       </c>
@@ -1936,7 +1941,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>92</v>
       </c>
@@ -1956,7 +1961,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>92</v>
       </c>
@@ -1976,7 +1981,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>92</v>
       </c>
@@ -1997,7 +2002,7 @@
       </c>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>92</v>
       </c>
@@ -2023,7 +2028,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>92</v>
       </c>
